--- a/Tool/ExeclToScript/Work/TransXlsxTable/MultPanle.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/MultPanle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>key</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>防沉迷公告</t>
+  </si>
+  <si>
+    <t>建筑商店通用多面板界面</t>
+  </si>
+  <si>
+    <t>建筑商店</t>
+  </si>
+  <si>
+    <t>[9,12]</t>
+  </si>
+  <si>
+    <t>建筑信息</t>
   </si>
   <si>
     <t>s</t>
@@ -1149,7 +1161,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1413,9 +1425,78 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
